--- a/data/Scenario.xlsx
+++ b/data/Scenario.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardodelgadocarreno/Development/workspace/pycharm-projects/the-program-123-game/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B103A05-E7E9-1A45-8003-EEEFCCDCC706}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E16BD6-325E-0643-8F24-833BE7EDE2B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13800" activeTab="5" xr2:uid="{037CA040-39CE-2942-8370-FF906523F477}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13800" activeTab="4" xr2:uid="{037CA040-39CE-2942-8370-FF906523F477}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="1" r:id="rId1"/>
     <sheet name="Bag" sheetId="5" r:id="rId2"/>
-    <sheet name="Char" sheetId="6" r:id="rId3"/>
-    <sheet name="Messages" sheetId="2" r:id="rId4"/>
-    <sheet name="Atributos" sheetId="3" r:id="rId5"/>
-    <sheet name="Items" sheetId="4" r:id="rId6"/>
+    <sheet name="Messages" sheetId="2" r:id="rId3"/>
+    <sheet name="Atributos" sheetId="3" r:id="rId4"/>
+    <sheet name="Items" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
   <si>
     <t>C</t>
   </si>
@@ -195,9 +194,6 @@
     <t>Inteligencia</t>
   </si>
   <si>
-    <t>Cansancio</t>
-  </si>
-  <si>
     <t>Equipar</t>
   </si>
   <si>
@@ -214,6 +210,33 @@
   </si>
   <si>
     <t>Crucifijo grande</t>
+  </si>
+  <si>
+    <t>Resistencia</t>
+  </si>
+  <si>
+    <t>Fuerza</t>
+  </si>
+  <si>
+    <t>Agilidad</t>
+  </si>
+  <si>
+    <t>Flor</t>
+  </si>
+  <si>
+    <t>Llave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¡Oh! Esto no se ve en un cementerio todos los días. La suma de las raíces cuadradas de dos lados cualquiera de un triángulo isóceles es igual a la raíz cuadrada del lado restante”. </t>
+  </si>
+  <si>
+    <t>Poción</t>
+  </si>
+  <si>
+    <t>Llave maestra</t>
+  </si>
+  <si>
+    <t>Cofre</t>
   </si>
 </sst>
 </file>
@@ -229,7 +252,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,13 +261,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -418,9 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,7 +753,7 @@
   <dimension ref="B2:Y20"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -811,7 +826,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="L4" s="16"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -842,7 +857,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="16"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -857,7 +872,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -926,7 +941,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
+      <c r="W8" s="16"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
@@ -934,12 +949,12 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="16"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -996,7 +1011,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="O11" s="16"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -1089,7 +1104,7 @@
     <row r="15" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1156,7 +1171,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
+      <c r="S17" s="16"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
@@ -1199,7 +1214,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="J19" s="16"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1285,125 +1300,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B0893B-2BCB-6C4E-A216-B212D607F82D}">
-  <dimension ref="V2:AH17"/>
-  <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AG13" sqref="AG13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="1.1640625" defaultRowHeight="7" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="22:34" ht="7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-    </row>
-    <row r="3" spans="22:34" ht="7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-    </row>
-    <row r="4" spans="22:34" ht="7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-    </row>
-    <row r="5" spans="22:34" ht="7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X5" s="17"/>
-      <c r="AF5" s="17"/>
-    </row>
-    <row r="6" spans="22:34" ht="7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="W6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AG6" s="17"/>
-    </row>
-    <row r="7" spans="22:34" ht="7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-    </row>
-    <row r="8" spans="22:34" ht="7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AG8" s="17"/>
-      <c r="AH8" s="17"/>
-    </row>
-    <row r="9" spans="22:34" ht="7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V9" s="17"/>
-      <c r="AH9" s="17"/>
-    </row>
-    <row r="10" spans="22:34" ht="7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AH10" s="17"/>
-    </row>
-    <row r="11" spans="22:34" ht="7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AH11" s="17"/>
-    </row>
-    <row r="12" spans="22:34" ht="7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V12" s="17"/>
-      <c r="AH12" s="17"/>
-    </row>
-    <row r="13" spans="22:34" ht="7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="W13" s="17"/>
-      <c r="AG13" s="17"/>
-    </row>
-    <row r="14" spans="22:34" ht="7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="W14" s="17"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="18"/>
-      <c r="AD14" s="18"/>
-      <c r="AG14" s="17"/>
-    </row>
-    <row r="15" spans="22:34" ht="7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X15" s="17"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="18"/>
-      <c r="AF15" s="17"/>
-    </row>
-    <row r="16" spans="22:34" ht="7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y16" s="17"/>
-      <c r="AE16" s="17"/>
-    </row>
-    <row r="17" spans="26:30" ht="7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D662D72-12D5-5342-9391-B20CF841CD1B}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1509,9 +1410,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D8" s="5" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>46</v>
@@ -1522,12 +1423,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD7C30E8-043C-9E43-8B60-85F39B9FC095}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1573,7 +1474,17 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1581,24 +1492,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9586F5E-0F8E-E441-A15C-4CF9B81537E4}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="6"/>
-    <col min="2" max="2" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="52.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
@@ -1619,10 +1530,10 @@
         <v>33</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>44</v>
@@ -1642,10 +1553,10 @@
         <v>34</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1703,12 +1614,37 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/data/Scenario.xlsx
+++ b/data/Scenario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardodelgadocarreno/Development/workspace/pycharm-projects/the-program-123-game/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E16BD6-325E-0643-8F24-833BE7EDE2B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8F296D-0282-DE4F-9E25-9D9FD7059CD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13800" activeTab="4" xr2:uid="{037CA040-39CE-2942-8370-FF906523F477}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
   <si>
     <t>C</t>
   </si>
@@ -237,6 +237,30 @@
   </si>
   <si>
     <t>Cofre</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>bravery</t>
+  </si>
+  <si>
+    <t>Intelligence</t>
+  </si>
+  <si>
+    <t>Resistance</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Agility</t>
+  </si>
+  <si>
+    <t>Libro</t>
+  </si>
+  <si>
+    <t>Sirve para aprender una estadística</t>
   </si>
 </sst>
 </file>
@@ -266,7 +290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -275,52 +299,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </right>
@@ -331,39 +399,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
       </left>
       <right/>
       <top/>
@@ -372,21 +409,21 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -394,18 +431,118 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="medium">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -414,28 +551,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,6 +601,64 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>10583</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>21166</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Gráfico 4" descr="Clave">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77BA820A-1DC0-504E-B41A-BC25676A7D94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="433916" y="402167"/>
+          <a:ext cx="222250" cy="222250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -752,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0B832A-1229-BA4B-8633-065945A63A81}">
   <dimension ref="B2:Y20"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -762,503 +970,504 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="13"/>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="15"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
       <c r="L4" s="16"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-    </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="15"/>
+    </row>
+    <row r="5" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="24"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
       <c r="Q5" s="16"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="15"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="15"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="15"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
       <c r="W8" s="16"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="15"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
       <c r="J9" s="16"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="15"/>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="15"/>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
       <c r="O11" s="16"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="15"/>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="15"/>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="15"/>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="15"/>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="15"/>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="15"/>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
       <c r="S17" s="16"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="15"/>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-    </row>
-    <row r="19" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="15"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B19" s="14"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="3"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="15"/>
     </row>
     <row r="20" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="4"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1274,25 +1483,25 @@
   <sheetData>
     <row r="1" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1309,112 +1518,112 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="77" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="51" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="77" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="51" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1425,66 +1634,84 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD7C30E8-043C-9E43-8B60-85F39B9FC095}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="111" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="111" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1494,157 +1721,165 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9586F5E-0F8E-E441-A15C-4CF9B81537E4}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="6"/>
-    <col min="2" max="2" width="17.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="17.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="6" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="6" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="6" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/data/Scenario.xlsx
+++ b/data/Scenario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardodelgadocarreno/Development/workspace/pycharm-projects/the-program-123-game/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8F296D-0282-DE4F-9E25-9D9FD7059CD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE904F1-8A5A-8943-AE74-A4D4D89F7E68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13800" activeTab="4" xr2:uid="{037CA040-39CE-2942-8370-FF906523F477}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
     <t>C</t>
   </si>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t>Sirve para aprender una estadística</t>
+  </si>
+  <si>
+    <t>Poción de Quereme</t>
+  </si>
+  <si>
+    <t>Diario</t>
   </si>
 </sst>
 </file>
@@ -1721,10 +1727,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9586F5E-0F8E-E441-A15C-4CF9B81537E4}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1859,6 +1865,11 @@
         <v>61</v>
       </c>
     </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>63</v>
@@ -1880,6 +1891,11 @@
       </c>
       <c r="D21" s="2" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/data/Scenario.xlsx
+++ b/data/Scenario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardodelgadocarreno/Development/workspace/pycharm-projects/the-program-123-game/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE904F1-8A5A-8943-AE74-A4D4D89F7E68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEE3577-ECD4-6940-919A-9710318F236B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13800" activeTab="4" xr2:uid="{037CA040-39CE-2942-8370-FF906523F477}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>C</t>
   </si>
@@ -136,13 +136,7 @@
     <t>item_name</t>
   </si>
   <si>
-    <t>caracteristica</t>
-  </si>
-  <si>
     <t>Consumible</t>
-  </si>
-  <si>
-    <t>Si</t>
   </si>
   <si>
     <t>Crucifijo</t>
@@ -197,9 +191,6 @@
     <t>Equipar</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Acción al consumir</t>
   </si>
   <si>
@@ -267,6 +258,63 @@
   </si>
   <si>
     <t>Diario</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>item1 = (1, 'Cerveza', True, False, 10, 'Me siento un poco mareado, pero creo que puedo continuar')</t>
+  </si>
+  <si>
+    <t>item 1 =</t>
+  </si>
+  <si>
+    <t>statistics_affected</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>Lucidez</t>
+  </si>
+  <si>
+    <t>(valor++, lucidez--)</t>
+  </si>
+  <si>
+    <t>(valor++)</t>
+  </si>
+  <si>
+    <t>(inteligencia++)</t>
+  </si>
+  <si>
+    <t>(salud++)</t>
+  </si>
+  <si>
+    <t>(valor++, fuerza--)</t>
+  </si>
+  <si>
+    <t>Insecto</t>
+  </si>
+  <si>
+    <t>Mejor me lo como antes de que me pique.</t>
+  </si>
+  <si>
+    <t>No se quien deja esto aquí, pero quien soy yo para juzgar</t>
+  </si>
+  <si>
+    <t>Hamburguesa descompuesta</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Me siento un poco mareado, pero creo que puedo continuar</t>
   </si>
 </sst>
 </file>
@@ -967,7 +1015,7 @@
   <dimension ref="B2:Y20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1594,7 +1642,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>17</v>
@@ -1619,7 +1667,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>22</v>
@@ -1627,10 +1675,10 @@
     </row>
     <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="D8" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1640,10 +1688,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD7C30E8-043C-9E43-8B60-85F39B9FC095}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1654,7 +1702,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1662,7 +1710,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1679,7 +1727,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1690,34 +1738,39 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1727,10 +1780,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9586F5E-0F8E-E441-A15C-4CF9B81537E4}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1738,15 +1791,17 @@
     <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="2" width="17.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="2"/>
+    <col min="8" max="8" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -1757,145 +1812,280 @@
         <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+      <c r="H15" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
       <c r="B21" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>75</v>
+    </row>
+    <row r="24" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/data/Scenario.xlsx
+++ b/data/Scenario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardodelgadocarreno/Development/workspace/pycharm-projects/the-program-123-game/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEE3577-ECD4-6940-919A-9710318F236B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57D4E5A-D18D-4443-A1F9-B93343478F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13800" activeTab="4" xr2:uid="{037CA040-39CE-2942-8370-FF906523F477}"/>
   </bookViews>
@@ -1783,7 +1783,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/Scenario.xlsx
+++ b/data/Scenario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardodelgadocarreno/Development/workspace/pycharm-projects/the-program-123-game/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57D4E5A-D18D-4443-A1F9-B93343478F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC802C1-188B-EE40-AC13-2A9D6487A7B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13800" activeTab="4" xr2:uid="{037CA040-39CE-2942-8370-FF906523F477}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13800" activeTab="5" xr2:uid="{037CA040-39CE-2942-8370-FF906523F477}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Messages" sheetId="2" r:id="rId3"/>
     <sheet name="Atributos" sheetId="3" r:id="rId4"/>
     <sheet name="Items" sheetId="4" r:id="rId5"/>
+    <sheet name="Hoja7" sheetId="7" r:id="rId6"/>
+    <sheet name="Hoja8" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="103">
   <si>
     <t>C</t>
   </si>
@@ -315,15 +317,61 @@
   </si>
   <si>
     <t>Me siento un poco mareado, pero creo que puedo continuar</t>
+  </si>
+  <si>
+    <t>Pago anual: $261.178 x mes. </t>
+  </si>
+  <si>
+    <t>Pago mensual: $352.324 x mes *</t>
+  </si>
+  <si>
+    <t>Pago anual</t>
+  </si>
+  <si>
+    <t>Pago mensual</t>
+  </si>
+  <si>
+    <t>Valor mes</t>
+  </si>
+  <si>
+    <t>Valor año</t>
+  </si>
+  <si>
+    <t>[7, 8, 9]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3]</t>
+  </si>
+  <si>
+    <t>[4, 5, 6]</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -605,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -640,6 +688,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1782,8 +1837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9586F5E-0F8E-E441-A15C-4CF9B81537E4}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="99" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2091,4 +2146,220 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5820BF-D554-594B-9508-4ABCB8765B6B}">
+  <dimension ref="C7:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D7" s="30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="31">
+        <v>261178</v>
+      </c>
+      <c r="E11" s="31">
+        <v>352324</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="31">
+        <f>D11*12</f>
+        <v>3134136</v>
+      </c>
+      <c r="E12" s="31">
+        <f>E11*12</f>
+        <v>4227888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECD95CB-901C-0A46-B5A3-4BE1A1065CE6}">
+  <dimension ref="B2:W4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="32"/>
+    <col min="2" max="2" width="1.83203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.6640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="32"/>
+    <col min="7" max="8" width="2.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="3" style="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="3" style="32" customWidth="1"/>
+    <col min="14" max="16" width="3" style="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="3" style="32" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="2.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C2" s="32">
+        <v>0</v>
+      </c>
+      <c r="D2" s="32">
+        <v>1</v>
+      </c>
+      <c r="E2" s="32">
+        <v>2</v>
+      </c>
+      <c r="H2" s="34"/>
+      <c r="I2" s="33">
+        <v>0</v>
+      </c>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="34"/>
+      <c r="N2" s="33">
+        <v>1</v>
+      </c>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="S2" s="33">
+        <v>2</v>
+      </c>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="32">
+        <v>1</v>
+      </c>
+      <c r="J3" s="32">
+        <v>2</v>
+      </c>
+      <c r="K3" s="32">
+        <v>3</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" s="32">
+        <v>4</v>
+      </c>
+      <c r="O3" s="32">
+        <v>5</v>
+      </c>
+      <c r="P3" s="32">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="R3" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="S3" s="32">
+        <v>7</v>
+      </c>
+      <c r="T3" s="32">
+        <v>8</v>
+      </c>
+      <c r="U3" s="32">
+        <v>9</v>
+      </c>
+      <c r="V3" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="W3" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="I4" s="32">
+        <v>0</v>
+      </c>
+      <c r="J4" s="32">
+        <v>1</v>
+      </c>
+      <c r="K4" s="32">
+        <v>2</v>
+      </c>
+      <c r="N4" s="32">
+        <v>0</v>
+      </c>
+      <c r="O4" s="32">
+        <v>1</v>
+      </c>
+      <c r="P4" s="32">
+        <v>2</v>
+      </c>
+      <c r="S4" s="32">
+        <v>0</v>
+      </c>
+      <c r="T4" s="32">
+        <v>1</v>
+      </c>
+      <c r="U4" s="32">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="S2:U2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Scenario.xlsx
+++ b/data/Scenario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardodelgadocarreno/Development/workspace/pycharm-projects/the-program-123-game/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC802C1-188B-EE40-AC13-2A9D6487A7B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE0BC9A-94D9-D047-8ADF-92DB14635074}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13800" activeTab="5" xr2:uid="{037CA040-39CE-2942-8370-FF906523F477}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13800" activeTab="7" xr2:uid="{037CA040-39CE-2942-8370-FF906523F477}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="Messages" sheetId="2" r:id="rId3"/>
     <sheet name="Atributos" sheetId="3" r:id="rId4"/>
     <sheet name="Items" sheetId="4" r:id="rId5"/>
-    <sheet name="Hoja7" sheetId="7" r:id="rId6"/>
-    <sheet name="Hoja8" sheetId="8" r:id="rId7"/>
+    <sheet name="Logros" sheetId="9" r:id="rId6"/>
+    <sheet name="Hoja7" sheetId="7" r:id="rId7"/>
+    <sheet name="commands" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="126">
   <si>
     <t>C</t>
   </si>
@@ -337,26 +338,95 @@
     <t>Valor año</t>
   </si>
   <si>
-    <t>[7, 8, 9]</t>
-  </si>
-  <si>
-    <t>[1, 2, 3]</t>
-  </si>
-  <si>
-    <t>[4, 5, 6]</t>
-  </si>
-  <si>
-    <t>[</t>
-  </si>
-  <si>
-    <t>]</t>
+    <t>Reloj</t>
+  </si>
+  <si>
+    <t>Seguro que a su dueño anterior, no le servirá de mucho</t>
+  </si>
+  <si>
+    <t>Lápida</t>
+  </si>
+  <si>
+    <t>Aquí yace Graimito.</t>
+  </si>
+  <si>
+    <t>Pircing</t>
+  </si>
+  <si>
+    <t>Primero muerto antes que sencillo</t>
+  </si>
+  <si>
+    <t>Se alcanza cuando encuentras un pircing</t>
+  </si>
+  <si>
+    <t>caminar</t>
+  </si>
+  <si>
+    <t>adelante</t>
+  </si>
+  <si>
+    <t>comando</t>
+  </si>
+  <si>
+    <t>parametro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt;</t>
+  </si>
+  <si>
+    <t>walk</t>
+  </si>
+  <si>
+    <t>parametro 2</t>
+  </si>
+  <si>
+    <t>(numero casillas)</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>Moverse hacia adelante la cantidad de casillas, si no hay obstáculos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ^|</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>parametro 1</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>atrás</t>
+  </si>
+  <si>
+    <t>derecha</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>izquierda</t>
+  </si>
+  <si>
+    <t>left</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -369,13 +439,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -653,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -690,11 +753,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1746,7 +1804,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1835,10 +1893,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9586F5E-0F8E-E441-A15C-4CF9B81537E4}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I6"/>
+    <sheetView topLeftCell="A20" zoomScale="99" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2143,17 +2201,77 @@
         <v>86</v>
       </c>
     </row>
+    <row r="26" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D256BA5A-50DB-914B-AA98-957BB6328875}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5820BF-D554-594B-9508-4ABCB8765B6B}">
   <dimension ref="C7:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2205,161 +2323,103 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECD95CB-901C-0A46-B5A3-4BE1A1065CE6}">
-  <dimension ref="B2:W4"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1011CB5F-34C5-E248-B656-753BD9356C0C}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="32"/>
-    <col min="2" max="2" width="1.83203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.6640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="32"/>
-    <col min="7" max="8" width="2.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="3" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="3" style="32" customWidth="1"/>
-    <col min="14" max="16" width="3" style="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="3" style="32" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="2.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="10.83203125" style="32"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="C2" s="32">
-        <v>0</v>
-      </c>
-      <c r="D2" s="32">
-        <v>1</v>
-      </c>
-      <c r="E2" s="32">
-        <v>2</v>
-      </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="33">
-        <v>0</v>
-      </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="34"/>
-      <c r="N2" s="33">
-        <v>1</v>
-      </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="S2" s="33">
-        <v>2</v>
-      </c>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="I3" s="32">
-        <v>1</v>
-      </c>
-      <c r="J3" s="32">
-        <v>2</v>
-      </c>
-      <c r="K3" s="32">
-        <v>3</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="N3" s="32">
-        <v>4</v>
-      </c>
-      <c r="O3" s="32">
-        <v>5</v>
-      </c>
-      <c r="P3" s="32">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="R3" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="S3" s="32">
-        <v>7</v>
-      </c>
-      <c r="T3" s="32">
-        <v>8</v>
-      </c>
-      <c r="U3" s="32">
-        <v>9</v>
-      </c>
-      <c r="V3" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="W3" s="32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="I4" s="32">
-        <v>0</v>
-      </c>
-      <c r="J4" s="32">
-        <v>1</v>
-      </c>
-      <c r="K4" s="32">
-        <v>2</v>
-      </c>
-      <c r="N4" s="32">
-        <v>0</v>
-      </c>
-      <c r="O4" s="32">
-        <v>1</v>
-      </c>
-      <c r="P4" s="32">
-        <v>2</v>
-      </c>
-      <c r="S4" s="32">
-        <v>0</v>
-      </c>
-      <c r="T4" s="32">
-        <v>1</v>
-      </c>
-      <c r="U4" s="32">
-        <v>2</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="S2:U2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>